--- a/요구사항정의서(상세)_겜도리1(4차수정).xlsx
+++ b/요구사항정의서(상세)_겜도리1(4차수정).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\714\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\737\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14085" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="11595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="164">
   <si>
     <t>회원 가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,6 +319,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2)상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>카테고리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -383,6 +387,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>3)마이페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>카테고리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -419,7 +427,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고객센터 관리</t>
+    <t>5)네비게이션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -447,6 +455,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>6)관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>휴대전화 인증 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -631,10 +643,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>환불</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공지사항, 자주 묻는 질문, 1:1문의</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -643,27 +651,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3)마이페이지 건영형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5)네비게이션 고주원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6)관리자 명일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4)고객관리 재열</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1)회원 관리-유나찡&gt;&lt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2)상품 웅현</t>
+    <t>상품문의 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1문의 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원이 보낸 1:1문의를 처리한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원이 보낸 상품문의를 처리한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4)고객지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환불 처리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -986,7 +998,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1024,6 +1036,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1477,29 +1495,29 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -1515,210 +1533,210 @@
       <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22"/>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24" t="s">
+      <c r="D4" s="25"/>
+      <c r="E4" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>1.2</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
       <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1.3</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>1.4</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="15" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>1.5</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="19"/>
+      <c r="E8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
       <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>1.6</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="15" t="s">
+      <c r="D9" s="19"/>
+      <c r="E9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
       <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1.7</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
       <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>1.8</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="15" t="s">
+      <c r="D11" s="19"/>
+      <c r="E11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>1.9</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="15" t="s">
+      <c r="D12" s="19"/>
+      <c r="E12" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1734,12 +1752,12 @@
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1758,122 +1776,122 @@
         <v>21</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
       <c r="N15" s="6"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>2.1</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="24" t="s">
+      <c r="D16" s="29"/>
+      <c r="E16" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
       <c r="N16" s="6"/>
     </row>
     <row r="17" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="28" t="s">
+      <c r="D17" s="19"/>
+      <c r="E17" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="30"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="32"/>
       <c r="N17" s="6"/>
     </row>
     <row r="18" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="28" t="s">
+      <c r="D18" s="19"/>
+      <c r="E18" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="30"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="32"/>
       <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>2.4</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="28" t="s">
+      <c r="D19" s="19"/>
+      <c r="E19" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="30"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="32"/>
       <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>2.5</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="28" t="s">
+      <c r="D20" s="19"/>
+      <c r="E20" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="30"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="32"/>
       <c r="N20" s="6"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -1889,12 +1907,12 @@
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="1:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1916,17 +1934,17 @@
         <v>21</v>
       </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="33"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="35"/>
       <c r="N23" s="6"/>
     </row>
     <row r="24" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1937,17 +1955,17 @@
         <v>9</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="36"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="38"/>
       <c r="N24" s="6"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -1958,17 +1976,17 @@
         <v>15</v>
       </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="30"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="32"/>
       <c r="N25" s="6"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -1979,17 +1997,17 @@
         <v>10</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="30"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="32"/>
       <c r="N26" s="6"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -2000,17 +2018,17 @@
         <v>11</v>
       </c>
       <c r="D27" s="3"/>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="30"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="32"/>
       <c r="N27" s="6"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -2021,17 +2039,17 @@
         <v>12</v>
       </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="30"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="32"/>
       <c r="N28" s="6"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -2047,12 +2065,12 @@
       <c r="N29" s="6"/>
     </row>
     <row r="30" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -2068,99 +2086,99 @@
       <c r="B31" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14" t="s">
+      <c r="D31" s="16"/>
+      <c r="E31" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
       <c r="N31" s="6"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="47"/>
-      <c r="E32" s="24" t="s">
+      <c r="D32" s="49"/>
+      <c r="E32" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
       <c r="N32" s="6"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>4.2</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="15" t="s">
+      <c r="D33" s="27"/>
+      <c r="E33" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
       <c r="N33" s="6"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
         <v>4.3</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="15" t="s">
+      <c r="D34" s="27"/>
+      <c r="E34" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
       <c r="N34" s="6"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
       <c r="N35" s="6"/>
     </row>
     <row r="36" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2188,12 +2206,12 @@
       <c r="N37" s="6"/>
     </row>
     <row r="38" spans="1:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -2209,105 +2227,105 @@
       <c r="B39" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="31" t="s">
+      <c r="D39" s="35"/>
+      <c r="E39" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="33"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="35"/>
       <c r="N39" s="6"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B40" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="23"/>
-      <c r="E40" s="34" t="s">
+      <c r="D40" s="25"/>
+      <c r="E40" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="36"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="38"/>
       <c r="N40" s="6"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B41" s="3">
         <v>5.2</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="28" t="s">
+      <c r="D41" s="19"/>
+      <c r="E41" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="30"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="32"/>
       <c r="N41" s="6"/>
     </row>
     <row r="42" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="3">
         <v>5.3</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="28" t="s">
+      <c r="D42" s="19"/>
+      <c r="E42" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="30"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="32"/>
       <c r="N42" s="6"/>
     </row>
     <row r="43" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="3">
         <v>5.4</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="28" t="s">
+      <c r="D43" s="19"/>
+      <c r="E43" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="30"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="32"/>
       <c r="N43" s="6"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -2347,12 +2365,12 @@
       <c r="N46" s="6"/>
     </row>
     <row r="47" spans="1:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -2372,110 +2390,110 @@
         <v>21</v>
       </c>
       <c r="D48" s="5"/>
-      <c r="E48" s="31" t="s">
+      <c r="E48" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="33"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="35"/>
       <c r="N48" s="6"/>
     </row>
     <row r="49" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="4">
         <v>10.1</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="23"/>
-      <c r="E49" s="38" t="s">
+      <c r="D49" s="25"/>
+      <c r="E49" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="40"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="42"/>
       <c r="N49" s="6"/>
     </row>
     <row r="50" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="3">
         <v>10.199999999999999</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="41" t="s">
+      <c r="D50" s="19"/>
+      <c r="E50" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="42"/>
-      <c r="L50" s="42"/>
-      <c r="M50" s="43"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="45"/>
       <c r="N50" s="6"/>
     </row>
     <row r="51" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B51" s="3">
         <v>10.3</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="41" t="s">
+      <c r="D51" s="19"/>
+      <c r="E51" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
-      <c r="L51" s="42"/>
-      <c r="M51" s="43"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="45"/>
       <c r="N51" s="6"/>
     </row>
     <row r="52" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B52" s="3"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="42"/>
-      <c r="L52" s="42"/>
-      <c r="M52" s="43"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="44"/>
+      <c r="M52" s="45"/>
       <c r="N52" s="6"/>
     </row>
     <row r="53" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B53" s="3"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="45"/>
-      <c r="K53" s="45"/>
-      <c r="L53" s="45"/>
-      <c r="M53" s="46"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="48"/>
       <c r="N53" s="6"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
@@ -2491,12 +2509,12 @@
       <c r="N54" s="6"/>
     </row>
     <row r="55" spans="1:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -2512,42 +2530,42 @@
       <c r="B56" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="31" t="s">
+      <c r="C56" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="33"/>
-      <c r="E56" s="31" t="s">
+      <c r="D56" s="35"/>
+      <c r="E56" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="32"/>
-      <c r="M56" s="33"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="35"/>
       <c r="N56" s="6"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B57" s="4">
         <v>11.1</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C57" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="23"/>
-      <c r="E57" s="22" t="s">
+      <c r="D57" s="25"/>
+      <c r="E57" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
-      <c r="M57" s="23"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="39"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="25"/>
       <c r="N57" s="6"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
@@ -2665,10 +2683,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M95"/>
+  <dimension ref="A2:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46:M46"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2677,12 +2695,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="A2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -2697,268 +2715,268 @@
       <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="56" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="58"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="60"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24" t="s">
+      <c r="D4" s="25"/>
+      <c r="E4" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>1.2</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1.3</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>1.4</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="15" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>1.5</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="19"/>
+      <c r="E8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>1.6</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="15" t="s">
+      <c r="D9" s="19"/>
+      <c r="E9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1.7</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>1.8</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>1.9</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
+        <v>113</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
+        <v>116</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
     </row>
     <row r="18" spans="1:13" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
+      <c r="A18" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="7"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -2973,158 +2991,158 @@
       <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="14" t="s">
+      <c r="C19" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="35"/>
+      <c r="E19" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>2.1</v>
       </c>
-      <c r="C20" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
+      <c r="C20" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C21" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="48" t="s">
+      <c r="C21" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="50"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="52"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="53"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="55"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="3">
         <v>2.4</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="30"/>
+      <c r="C23" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="32"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>2.5</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="30"/>
+      <c r="C24" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="32"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>2.6</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
+      <c r="C25" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>2.8</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="30"/>
+      <c r="C26" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="32"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B27" s="6"/>
@@ -3142,7 +3160,7 @@
     </row>
     <row r="29" spans="1:13" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="11"/>
@@ -3160,247 +3178,247 @@
       <c r="B30" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14" t="s">
+      <c r="D30" s="16"/>
+      <c r="E30" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
     </row>
     <row r="31" spans="1:13" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="4">
         <v>3.1</v>
       </c>
-      <c r="C31" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="47"/>
-      <c r="E31" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
+      <c r="C31" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="49"/>
+      <c r="E31" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <v>3.2</v>
       </c>
-      <c r="C32" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
+      <c r="C32" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>3.3</v>
       </c>
-      <c r="C33" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
+      <c r="C33" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
         <v>3.4</v>
       </c>
-      <c r="C34" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
+      <c r="C34" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="27"/>
+      <c r="E34" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
     </row>
     <row r="35" spans="1:13" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="3">
         <v>3.5</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
+      <c r="C35" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B36" s="3">
         <v>3.7</v>
       </c>
-      <c r="C36" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="15" t="s">
+      <c r="C36" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B37" s="3">
         <v>3.8</v>
       </c>
-      <c r="C37" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
+      <c r="C37" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B38" s="3">
         <v>3.9</v>
       </c>
-      <c r="C38" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
+      <c r="C38" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B39" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
+        <v>119</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B40" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="19"/>
+      <c r="E40" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B41" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
+        <v>121</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="19"/>
+      <c r="E41" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
     </row>
     <row r="45" spans="1:13" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -3419,185 +3437,185 @@
       <c r="B46" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="C46" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="33"/>
-      <c r="E46" s="31" t="s">
+      <c r="D46" s="35"/>
+      <c r="E46" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="33"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="35"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C47" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D47" s="23"/>
-      <c r="E47" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="36"/>
+      <c r="C47" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="25"/>
+      <c r="E47" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="38"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B48" s="3">
         <v>4.2</v>
       </c>
-      <c r="C48" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="30"/>
+      <c r="C48" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="19"/>
+      <c r="E48" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="32"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="3">
         <v>4.3</v>
       </c>
-      <c r="C49" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="30"/>
+      <c r="C49" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="19"/>
+      <c r="E49" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="32"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="3">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C50" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="30"/>
+      <c r="C50" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" s="19"/>
+      <c r="E50" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="32"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="3">
         <v>4.5</v>
       </c>
-      <c r="C51" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="30"/>
+      <c r="C51" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="19"/>
+      <c r="E51" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="32"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C52" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D52" s="17"/>
-      <c r="E52" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="30"/>
+      <c r="C52" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D52" s="19"/>
+      <c r="E52" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="32"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="3">
         <v>4.7</v>
       </c>
-      <c r="C53" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D53" s="17"/>
-      <c r="E53" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="30"/>
+      <c r="C53" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D53" s="19"/>
+      <c r="E53" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="32"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="3">
         <v>4.8</v>
       </c>
-      <c r="C54" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="D54" s="17"/>
-      <c r="E54" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="30"/>
+      <c r="C54" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D54" s="19"/>
+      <c r="E54" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="32"/>
     </row>
     <row r="57" spans="2:13" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -3615,166 +3633,166 @@
       <c r="B58" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="31" t="s">
+      <c r="C58" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D58" s="33"/>
-      <c r="E58" s="31" t="s">
+      <c r="D58" s="35"/>
+      <c r="E58" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="33"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="35"/>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="23"/>
-      <c r="E59" s="34" t="s">
+      <c r="D59" s="25"/>
+      <c r="E59" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="36"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="38"/>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B60" s="3">
         <v>5.2</v>
       </c>
-      <c r="C60" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D60" s="17"/>
-      <c r="E60" s="28" t="s">
+      <c r="C60" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" s="19"/>
+      <c r="E60" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="30"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="32"/>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B61" s="3">
         <v>5.3</v>
       </c>
-      <c r="C61" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D61" s="17"/>
-      <c r="E61" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="29"/>
-      <c r="M61" s="30"/>
+      <c r="C61" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D61" s="19"/>
+      <c r="E61" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="32"/>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B62" s="3">
         <v>5.4</v>
       </c>
-      <c r="C62" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D62" s="17"/>
-      <c r="E62" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="29"/>
-      <c r="M62" s="30"/>
+      <c r="C62" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62" s="19"/>
+      <c r="E62" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="32"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B63" s="3">
         <v>5.3</v>
       </c>
-      <c r="C63" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="D63" s="17"/>
-      <c r="E63" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="30"/>
+      <c r="C63" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" s="19"/>
+      <c r="E63" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="31"/>
+      <c r="M63" s="32"/>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B64" s="3">
         <v>5.4</v>
       </c>
-      <c r="C64" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D64" s="17"/>
-      <c r="E64" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="29"/>
-      <c r="M64" s="30"/>
+      <c r="C64" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D64" s="19"/>
+      <c r="E64" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="32"/>
     </row>
     <row r="65" spans="1:13" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
       <c r="B65" s="3">
         <v>5.3</v>
       </c>
-      <c r="C65" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D65" s="17"/>
-      <c r="E65" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="29"/>
-      <c r="M65" s="30"/>
+      <c r="C65" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D65" s="19"/>
+      <c r="E65" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="32"/>
     </row>
     <row r="68" spans="1:13" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B68" s="7" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -3792,198 +3810,225 @@
       <c r="B69" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C69" s="31" t="s">
+      <c r="C69" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D69" s="33"/>
-      <c r="E69" s="31" t="s">
+      <c r="D69" s="35"/>
+      <c r="E69" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F69" s="32"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="32"/>
-      <c r="I69" s="32"/>
-      <c r="J69" s="32"/>
-      <c r="K69" s="32"/>
-      <c r="L69" s="32"/>
-      <c r="M69" s="33"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="34"/>
+      <c r="K69" s="34"/>
+      <c r="L69" s="34"/>
+      <c r="M69" s="35"/>
     </row>
     <row r="70" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="4">
         <v>6.1</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C70" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="23"/>
-      <c r="E70" s="38" t="s">
+      <c r="D70" s="25"/>
+      <c r="E70" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="F70" s="39"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="39"/>
-      <c r="J70" s="39"/>
-      <c r="K70" s="39"/>
-      <c r="L70" s="39"/>
-      <c r="M70" s="40"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="41"/>
+      <c r="K70" s="41"/>
+      <c r="L70" s="41"/>
+      <c r="M70" s="42"/>
     </row>
     <row r="71" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="3">
         <v>6.2</v>
       </c>
-      <c r="C71" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D71" s="17"/>
-      <c r="E71" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="F71" s="42"/>
-      <c r="G71" s="42"/>
-      <c r="H71" s="42"/>
-      <c r="I71" s="42"/>
-      <c r="J71" s="42"/>
-      <c r="K71" s="42"/>
-      <c r="L71" s="42"/>
-      <c r="M71" s="43"/>
+      <c r="C71" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D71" s="19"/>
+      <c r="E71" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="F71" s="44"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="44"/>
+      <c r="M71" s="45"/>
     </row>
     <row r="72" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="3">
         <v>6.3</v>
       </c>
-      <c r="C72" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D72" s="17"/>
-      <c r="E72" s="41" t="s">
+      <c r="C72" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D72" s="19"/>
+      <c r="E72" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="F72" s="42"/>
-      <c r="G72" s="42"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="42"/>
-      <c r="K72" s="42"/>
-      <c r="L72" s="42"/>
-      <c r="M72" s="43"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="44"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="44"/>
+      <c r="L72" s="44"/>
+      <c r="M72" s="45"/>
     </row>
     <row r="73" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B73" s="3">
         <v>6.4</v>
       </c>
-      <c r="C73" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D73" s="17"/>
-      <c r="E73" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="F73" s="42"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="42"/>
-      <c r="K73" s="42"/>
-      <c r="L73" s="42"/>
-      <c r="M73" s="43"/>
+      <c r="C73" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D73" s="19"/>
+      <c r="E73" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="F73" s="44"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="44"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="44"/>
+      <c r="K73" s="44"/>
+      <c r="L73" s="44"/>
+      <c r="M73" s="45"/>
     </row>
     <row r="74" spans="1:13" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
+      <c r="B74" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D74" s="19"/>
+      <c r="E74" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="F74" s="44"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="44"/>
+      <c r="L74" s="44"/>
+      <c r="M74" s="45"/>
     </row>
     <row r="75" spans="1:13" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A75" s="7"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
+      <c r="A75" s="14"/>
+      <c r="B75" s="13">
+        <v>6.6</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D75" s="19"/>
+      <c r="E75" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="F75" s="44"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="44"/>
+      <c r="I75" s="44"/>
+      <c r="J75" s="44"/>
+      <c r="K75" s="44"/>
+      <c r="L75" s="44"/>
+      <c r="M75" s="45"/>
     </row>
     <row r="76" spans="1:13" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
-      <c r="B76" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
-    </row>
-    <row r="77" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+    </row>
+    <row r="77" spans="1:13" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+    </row>
+    <row r="78" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="7"/>
+      <c r="B78" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C77" s="31" t="s">
+      <c r="C78" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D77" s="33"/>
-      <c r="E77" s="31" t="s">
+      <c r="D78" s="35"/>
+      <c r="E78" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F77" s="32"/>
-      <c r="G77" s="32"/>
-      <c r="H77" s="32"/>
-      <c r="I77" s="32"/>
-      <c r="J77" s="32"/>
-      <c r="K77" s="32"/>
-      <c r="L77" s="32"/>
-      <c r="M77" s="33"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B78" s="4">
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="34"/>
+      <c r="K78" s="34"/>
+      <c r="L78" s="34"/>
+      <c r="M78" s="35"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B79" s="4">
         <v>7.1</v>
       </c>
-      <c r="C78" s="22" t="s">
+      <c r="C79" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D78" s="23"/>
-      <c r="E78" s="22" t="s">
+      <c r="D79" s="25"/>
+      <c r="E79" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="F78" s="37"/>
-      <c r="G78" s="37"/>
-      <c r="H78" s="37"/>
-      <c r="I78" s="37"/>
-      <c r="J78" s="37"/>
-      <c r="K78" s="37"/>
-      <c r="L78" s="37"/>
-      <c r="M78" s="23"/>
-    </row>
-    <row r="88" spans="1:1" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A88" s="7"/>
-    </row>
-    <row r="95" spans="1:1" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A95" s="7"/>
+      <c r="F79" s="39"/>
+      <c r="G79" s="39"/>
+      <c r="H79" s="39"/>
+      <c r="I79" s="39"/>
+      <c r="J79" s="39"/>
+      <c r="K79" s="39"/>
+      <c r="L79" s="39"/>
+      <c r="M79" s="25"/>
+    </row>
+    <row r="89" spans="1:1" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A89" s="7"/>
+    </row>
+    <row r="96" spans="1:1" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A96" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="114">
+  <mergeCells count="118">
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:M6"/>
     <mergeCell ref="C7:D7"/>
@@ -4084,10 +4129,10 @@
     <mergeCell ref="E61:M61"/>
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="E62:M62"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:M77"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="E78:M78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:M79"/>
     <mergeCell ref="C71:D71"/>
     <mergeCell ref="E71:M71"/>
     <mergeCell ref="C72:D72"/>
@@ -4098,6 +4143,10 @@
     <mergeCell ref="C69:D69"/>
     <mergeCell ref="C73:D73"/>
     <mergeCell ref="E73:M73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:M74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:M75"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
